--- a/Datas/Defines/__enums__.xlsx
+++ b/Datas/Defines/__enums__.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\DemoExcels\Datas\Defines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{F5B77618-E234-433A-9F97-8B833CEE6514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F0D627-4054-4336-B34E-7EF7264785C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="李翔 - 个人视图" guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="Claymore - Personal View" guid="{07147121-523E-4A6D-BDF5-D196F6699774}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="3"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="李翔 - 个人视图" guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -124,7 +124,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -132,13 +132,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -146,7 +146,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -534,23 +534,23 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D21" sqref="D21"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -606,7 +606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="85.5">
+    <row r="3" spans="1:11" ht="90">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -637,39 +637,39 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
+      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}">
+      <pane ySplit="3" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H317" sqref="H317"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
+      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
     <customSheetView guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}">
       <pane ySplit="3" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H389" sqref="H389"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
-      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}">
-      <pane ySplit="3" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H317" sqref="H317"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
-      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
+    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
     </customSheetView>

--- a/Datas/Defines/__enums__.xlsx
+++ b/Datas/Defines/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F0D627-4054-4336-B34E-7EF7264785C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A36AD2-B336-419E-9A31-3A49EF5B8D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -17,12 +17,12 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Claymore - Personal View" guid="{07147121-523E-4A6D-BDF5-D196F6699774}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="3"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="李翔 - 个人视图" guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="Claymore - Personal View" guid="{07147121-523E-4A6D-BDF5-D196F6699774}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,91 +42,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>枚举名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>alias</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>别名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>comment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>full_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>全名(包含模块和名字)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>tags</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>flags</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>unique</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>枚举项是否唯一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>*items</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>##var</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLG.WeaponType</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>Lance</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>Tome</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Arts</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>剑</t>
+  </si>
+  <si>
+    <t>枪</t>
+  </si>
+  <si>
+    <t>斧</t>
+  </si>
+  <si>
+    <t>弓</t>
+  </si>
+  <si>
+    <t>短刀</t>
+  </si>
+  <si>
+    <t>杖</t>
+  </si>
+  <si>
+    <t>体术</t>
+  </si>
+  <si>
+    <t>特殊</t>
+  </si>
+  <si>
+    <t>魔法书</t>
+  </si>
+  <si>
+    <t>SLG.WeaponRank</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>SLG.ItemType</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,8 +263,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -189,15 +293,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -213,8 +338,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{F7CF19D7-E3DC-4B8C-9354-AE3AF5AC64AB}"/>
     <cellStyle name="常规 3" xfId="2" xr:uid="{63D7163D-4042-4858-A281-A2C872036254}"/>
@@ -529,12 +670,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D21" sqref="D21"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:K13"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -573,13 +714,13 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -635,46 +776,381 @@
       </c>
       <c r="K3" s="1"/>
     </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5"/>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="5">
+        <v>5</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="5">
+        <v>6</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="5">
+        <v>7</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="5">
+        <v>8</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="G14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="G15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="G16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="G17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="G18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="G20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="G21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="G22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="G23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="G24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="G25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="G26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="G27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="G28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="2">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
-      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
+    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}">
+      <pane ySplit="3" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H389" sqref="H389"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
+      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
     <customSheetView guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}">
       <pane ySplit="3" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H317" sqref="H317"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
-      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}">
-      <pane ySplit="3" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H389" sqref="H389"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
+      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
     </customSheetView>
   </customSheetViews>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>

--- a/Datas/Defines/__enums__.xlsx
+++ b/Datas/Defines/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A36AD2-B336-419E-9A31-3A49EF5B8D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298093EF-440B-452E-9C5A-416A4CFD4D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -17,12 +17,12 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="李翔 - 个人视图" guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="Claymore - Personal View" guid="{07147121-523E-4A6D-BDF5-D196F6699774}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="3"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="李翔 - 个人视图" guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -198,6 +198,48 @@
   </si>
   <si>
     <t>Item</t>
+  </si>
+  <si>
+    <t>SLG.Gender</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>SLG.ClassType</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>Cavalry</t>
+  </si>
+  <si>
+    <t>Covert</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Flying</t>
+  </si>
+  <si>
+    <t>Mystical</t>
+  </si>
+  <si>
+    <t>QiAdept</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -344,13 +386,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,12 +712,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D21" sqref="D21"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -714,13 +756,13 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -778,7 +820,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="b">
@@ -1108,41 +1150,155 @@
         <v>9</v>
       </c>
     </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="G30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="G31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="G33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9">
+      <c r="G34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9">
+      <c r="G35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9">
+      <c r="G36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9">
+      <c r="G37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9">
+      <c r="G38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9">
+      <c r="G39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9">
+      <c r="G40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="2">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
+      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}">
+      <pane ySplit="3" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H317" sqref="H317"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
+      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
     <customSheetView guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}">
       <pane ySplit="3" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H389" sqref="H389"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
-      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}">
-      <pane ySplit="3" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H317" sqref="H317"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
-      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
+    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
     </customSheetView>

--- a/Datas/Defines/__enums__.xlsx
+++ b/Datas/Defines/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298093EF-440B-452E-9C5A-416A4CFD4D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADDE774-B2DB-4BA7-B73A-3FF3BB44F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -17,12 +17,12 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Claymore - Personal View" guid="{07147121-523E-4A6D-BDF5-D196F6699774}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="3"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="李翔 - 个人视图" guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="Claymore - Personal View" guid="{07147121-523E-4A6D-BDF5-D196F6699774}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -240,6 +240,27 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>SLG.DamageType</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>MAG</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>penetrating</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>physics</t>
   </si>
 </sst>
 </file>
@@ -712,12 +733,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D21" sqref="D21"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1200,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="7:9">
+    <row r="33" spans="2:10">
       <c r="G33" s="4" t="s">
         <v>51</v>
       </c>
@@ -1208,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:9">
+    <row r="34" spans="2:10">
       <c r="G34" s="4" t="s">
         <v>52</v>
       </c>
@@ -1216,7 +1237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="7:9">
+    <row r="35" spans="2:10">
       <c r="G35" s="4" t="s">
         <v>53</v>
       </c>
@@ -1224,7 +1245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="7:9">
+    <row r="36" spans="2:10">
       <c r="G36" s="4" t="s">
         <v>54</v>
       </c>
@@ -1232,7 +1253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="7:9">
+    <row r="37" spans="2:10">
       <c r="G37" s="4" t="s">
         <v>55</v>
       </c>
@@ -1240,7 +1261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="7:9">
+    <row r="38" spans="2:10">
       <c r="G38" s="4" t="s">
         <v>56</v>
       </c>
@@ -1248,7 +1269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="7:9">
+    <row r="39" spans="2:10">
       <c r="G39" s="4" t="s">
         <v>57</v>
       </c>
@@ -1256,7 +1277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="7:9">
+    <row r="40" spans="2:10">
       <c r="G40" s="4" t="s">
         <v>58</v>
       </c>
@@ -1264,41 +1285,91 @@
         <v>8</v>
       </c>
     </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="G42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="G43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="G44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="2">
+        <v>3</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
-      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
+    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}">
+      <pane ySplit="3" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H389" sqref="H389"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
+      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
     <customSheetView guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}">
       <pane ySplit="3" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H317" sqref="H317"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
-      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}">
-      <pane ySplit="3" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H389" sqref="H389"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
+      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
     </customSheetView>

--- a/Datas/Defines/__enums__.xlsx
+++ b/Datas/Defines/__enums__.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADDE774-B2DB-4BA7-B73A-3FF3BB44F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE04032D-B02B-4649-B085-9F1A88CDE2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="28680" yWindow="2805" windowWidth="20730" windowHeight="11160" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="李翔 - 个人视图" guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="Claymore - Personal View" guid="{07147121-523E-4A6D-BDF5-D196F6699774}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="3"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="李翔 - 个人视图" guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,75 +45,75 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>枚举名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>alias</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>别名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>comment</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>full_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>全名(包含模块和名字)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>tags</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>##</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>flags</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>unique</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>枚举项是否唯一</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>*items</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>##var</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SLG.WeaponType</t>
@@ -267,13 +267,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,11 +388,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -401,19 +408,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,9 +749,9 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D21" sqref="D21"/>
-      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -973,10 +986,10 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="I10" s="5">
         <v>6</v>
@@ -1012,11 +1025,11 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>35</v>
+      <c r="G12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="I12" s="5">
         <v>8</v>
@@ -1140,8 +1153,8 @@
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="G25" s="6" t="s">
-        <v>25</v>
+      <c r="G25" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I25" s="5">
         <v>6</v>
@@ -1157,7 +1170,7 @@
     </row>
     <row r="27" spans="2:9">
       <c r="G27" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I27" s="5">
         <v>8</v>
@@ -1337,39 +1350,39 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
+      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}">
+      <pane ySplit="3" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H317" sqref="H317"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
+      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
     <customSheetView guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}">
       <pane ySplit="3" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H389" sqref="H389"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
-      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}">
-      <pane ySplit="3" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H317" sqref="H317"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
-      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
+    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
     </customSheetView>
@@ -1377,7 +1390,7 @@
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>

--- a/Datas/Defines/__enums__.xlsx
+++ b/Datas/Defines/__enums__.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\Defines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeMonoConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE04032D-B02B-4649-B085-9F1A88CDE2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4E3E77-6433-456E-BBA9-65C3EF7ACD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2805" windowWidth="20730" windowHeight="11160" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-24120" yWindow="8100" windowWidth="24240" windowHeight="13020" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Claymore - Personal View" guid="{07147121-523E-4A6D-BDF5-D196F6699774}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="3"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="李翔 - 个人视图" guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="Claymore - Personal View" guid="{07147121-523E-4A6D-BDF5-D196F6699774}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>physics</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -417,16 +420,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,9 +453,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -490,7 +493,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -596,7 +599,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -738,7 +741,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -746,12 +749,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D21" sqref="D21"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -760,18 +763,19 @@
     <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="15.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -785,20 +789,23 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -807,23 +814,24 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="90">
+    <row r="3" spans="1:12" ht="90">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -838,21 +846,22 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
         <v>18</v>
@@ -865,180 +874,189 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>0</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>2</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>3</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>4</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>5</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>6</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <v>7</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>8</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
@@ -1048,54 +1066,54 @@
       <c r="D13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="G14" s="4" t="s">
+    <row r="14" spans="1:12">
+      <c r="H14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="G15" s="4" t="s">
+    <row r="15" spans="1:12">
+      <c r="H15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="G16" s="4" t="s">
+    <row r="16" spans="1:12">
+      <c r="H16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="G17" s="4" t="s">
+    <row r="17" spans="2:10">
+      <c r="H17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="G18" s="4" t="s">
+    <row r="18" spans="2:10">
+      <c r="H18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:10">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1105,86 +1123,86 @@
       <c r="D19" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="5">
+      <c r="J19" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="G20" s="6" t="s">
+    <row r="20" spans="2:10">
+      <c r="H20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="5">
+      <c r="J20" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="G21" s="6" t="s">
+    <row r="21" spans="2:10">
+      <c r="H21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="5">
+      <c r="J21" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="G22" s="6" t="s">
+    <row r="22" spans="2:10">
+      <c r="H22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="5">
+      <c r="J22" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="G23" s="6" t="s">
+    <row r="23" spans="2:10">
+      <c r="H23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="5">
+      <c r="J23" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
-      <c r="G24" s="6" t="s">
+    <row r="24" spans="2:10">
+      <c r="H24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="5">
+      <c r="J24" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
-      <c r="G25" s="4" t="s">
+    <row r="25" spans="2:10">
+      <c r="H25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="5">
+      <c r="J25" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
-      <c r="G26" s="6" t="s">
+    <row r="26" spans="2:10">
+      <c r="H26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="5">
+      <c r="J26" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
-      <c r="G27" s="6" t="s">
+    <row r="27" spans="2:10">
+      <c r="H27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
-      <c r="G28" s="4" t="s">
+    <row r="28" spans="2:10">
+      <c r="H28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:10">
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -1194,30 +1212,30 @@
       <c r="D29" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
-      <c r="G30" s="4" t="s">
+    <row r="30" spans="2:10">
+      <c r="H30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
-      <c r="G31" s="4" t="s">
+    <row r="31" spans="2:10">
+      <c r="H31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:10">
       <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
@@ -1227,78 +1245,78 @@
       <c r="D32" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
-      <c r="G33" s="4" t="s">
+    <row r="33" spans="2:11">
+      <c r="H33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="2">
+      <c r="J33" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
-      <c r="G34" s="4" t="s">
+    <row r="34" spans="2:11">
+      <c r="H34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J34" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
-      <c r="G35" s="4" t="s">
+    <row r="35" spans="2:11">
+      <c r="H35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
-      <c r="G36" s="4" t="s">
+    <row r="36" spans="2:11">
+      <c r="H36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I36" s="2">
+      <c r="J36" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
-      <c r="G37" s="4" t="s">
+    <row r="37" spans="2:11">
+      <c r="H37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
-      <c r="G38" s="4" t="s">
+    <row r="38" spans="2:11">
+      <c r="H38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
-      <c r="G39" s="4" t="s">
+    <row r="39" spans="2:11">
+      <c r="H39" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
-      <c r="G40" s="4" t="s">
+    <row r="40" spans="2:11">
+      <c r="H40" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:11">
       <c r="B41" s="2" t="s">
         <v>60</v>
       </c>
@@ -1308,87 +1326,87 @@
       <c r="D41" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
-      <c r="G42" s="4" t="s">
+    <row r="42" spans="2:11">
+      <c r="H42" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="2">
         <v>1</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
-      <c r="G43" s="4" t="s">
+    <row r="43" spans="2:11">
+      <c r="H43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I43" s="2">
+      <c r="J43" s="2">
         <v>2</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
-      <c r="G44" s="4" t="s">
+    <row r="44" spans="2:11">
+      <c r="H44" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J44" s="2">
         <v>3</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
-      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
+    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}">
+      <pane ySplit="3" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H389" sqref="H389"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
+      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
     <customSheetView guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}">
       <pane ySplit="3" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H317" sqref="H317"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
-      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}">
-      <pane ySplit="3" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H389" sqref="H389"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
+      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datas/Defines/__enums__.xlsx
+++ b/Datas/Defines/__enums__.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeMonoConfigs\Datas\Defines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4E3E77-6433-456E-BBA9-65C3EF7ACD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F13AEE-5CC9-4A22-90A4-DA23CE3281F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="8100" windowWidth="24240" windowHeight="13020" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="23880" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="李翔 - 个人视图" guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="Claymore - Personal View" guid="{07147121-523E-4A6D-BDF5-D196F6699774}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="3"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="李翔 - 个人视图" guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -264,6 +264,18 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>SLG.PawnMapEvent</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Combat</t>
+  </si>
+  <si>
+    <t>Store</t>
   </si>
 </sst>
 </file>
@@ -749,12 +761,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D21" sqref="D21"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1366,41 +1378,74 @@
         <v>64</v>
       </c>
     </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="H46" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="H47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
+      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}">
+      <pane ySplit="3" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H317" sqref="H317"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
+      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
     <customSheetView guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}">
       <pane ySplit="3" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H389" sqref="H389"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
-      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}">
-      <pane ySplit="3" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H317" sqref="H317"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
-      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
+    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
     </customSheetView>

--- a/Datas/Defines/__enums__.xlsx
+++ b/Datas/Defines/__enums__.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F13AEE-5CC9-4A22-90A4-DA23CE3281F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1965EC07-E704-4936-824B-2C1594E35BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="28680" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Claymore - Personal View" guid="{07147121-523E-4A6D-BDF5-D196F6699774}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="3"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="李翔 - 个人视图" guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="Claymore - Personal View" guid="{07147121-523E-4A6D-BDF5-D196F6699774}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Store</t>
+  </si>
+  <si>
+    <t>Talk</t>
   </si>
 </sst>
 </file>
@@ -761,29 +764,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D21" sqref="D21"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -843,7 +846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="90">
+    <row r="3" spans="1:12" ht="86.4">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1411,41 +1414,46 @@
         <v>2</v>
       </c>
     </row>
+    <row r="48" spans="2:11">
+      <c r="H48" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
-      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
+    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}">
+      <pane ySplit="3" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H389" sqref="H389"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
+      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
     <customSheetView guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}">
       <pane ySplit="3" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H317" sqref="H317"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
-      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}">
-      <pane ySplit="3" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H389" sqref="H389"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
+      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
     </customSheetView>

--- a/Datas/Defines/__enums__.xlsx
+++ b/Datas/Defines/__enums__.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1965EC07-E704-4936-824B-2C1594E35BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599B0EE0-EBD9-41DC-BACB-D30AC0CD845B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="李翔 - 个人视图" guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="Claymore - Personal View" guid="{07147121-523E-4A6D-BDF5-D196F6699774}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="3"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="孙鹤 - Personal View" guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="李翔 - 个人视图" guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -116,169 +116,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>SLG.WeaponType</t>
-  </si>
-  <si>
-    <t>Sword</t>
-  </si>
-  <si>
-    <t>Lance</t>
-  </si>
-  <si>
-    <t>Axe</t>
-  </si>
-  <si>
-    <t>Bow</t>
-  </si>
-  <si>
-    <t>Dagger</t>
-  </si>
-  <si>
-    <t>Tome</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>Arts</t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
-    <t>剑</t>
-  </si>
-  <si>
-    <t>枪</t>
-  </si>
-  <si>
-    <t>斧</t>
-  </si>
-  <si>
-    <t>弓</t>
-  </si>
-  <si>
-    <t>短刀</t>
-  </si>
-  <si>
-    <t>杖</t>
-  </si>
-  <si>
-    <t>体术</t>
-  </si>
-  <si>
-    <t>特殊</t>
-  </si>
-  <si>
-    <t>魔法书</t>
-  </si>
-  <si>
-    <t>SLG.WeaponRank</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>SLG.ItemType</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>SLG.Gender</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
-    <t>FEMALE</t>
-  </si>
-  <si>
-    <t>SLG.ClassType</t>
-  </si>
-  <si>
-    <t>Armor</t>
-  </si>
-  <si>
-    <t>Backup</t>
-  </si>
-  <si>
-    <t>Cavalry</t>
-  </si>
-  <si>
-    <t>Covert</t>
-  </si>
-  <si>
-    <t>Dragon</t>
-  </si>
-  <si>
-    <t>Flying</t>
-  </si>
-  <si>
-    <t>Mystical</t>
-  </si>
-  <si>
-    <t>QiAdept</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>SLG.DamageType</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>MAG</t>
-  </si>
-  <si>
-    <t>PN</t>
-  </si>
-  <si>
-    <t>penetrating</t>
-  </si>
-  <si>
-    <t>magic</t>
-  </si>
-  <si>
-    <t>physics</t>
-  </si>
-  <si>
     <t>group</t>
-  </si>
-  <si>
-    <t>SLG.PawnMapEvent</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Combat</t>
-  </si>
-  <si>
-    <t>Store</t>
-  </si>
-  <si>
-    <t>Talk</t>
   </si>
 </sst>
 </file>
@@ -764,29 +602,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D21" sqref="D21"/>
-      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -804,7 +642,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -846,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="86.4">
+    <row r="3" spans="1:12" ht="90">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -878,30 +716,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5"/>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="5"/>
@@ -911,18 +735,10 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="5"/>
@@ -932,18 +748,10 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="5">
-        <v>2</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="5"/>
@@ -953,18 +761,10 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="5">
-        <v>3</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5"/>
@@ -974,18 +774,10 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="5">
-        <v>4</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5"/>
@@ -995,18 +787,10 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="5">
-        <v>5</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="5"/>
@@ -1016,18 +800,10 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="5">
-        <v>6</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5"/>
@@ -1037,18 +813,10 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="5">
-        <v>7</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="5"/>
@@ -1058,402 +826,81 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="5">
-        <v>8</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="H14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="H15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="H16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="H17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="H18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="H20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="H21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="H22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="H23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="H24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="H25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="H26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="H27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="H28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="H30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="H31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J31" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="H33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="H34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="H35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="H36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="H37" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J37" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="H38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J38" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="H39" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J39" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="H40" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J40" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="H42" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="H43" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J43" s="2">
-        <v>2</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="H44" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J44" s="2">
-        <v>3</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="H46" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="H47" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J47" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="H48" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="19" spans="8:10">
+      <c r="H19" s="6"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="8:10">
+      <c r="H20" s="6"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="8:10">
+      <c r="H21" s="6"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="8:10">
+      <c r="H22" s="6"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="8:10">
+      <c r="H23" s="6"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="8:10">
+      <c r="H24" s="6"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="8:10">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="8:10">
+      <c r="H26" s="6"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="8:10">
+      <c r="H27" s="6"/>
+      <c r="J27" s="5"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
+      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}">
+      <pane ySplit="3" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H317" sqref="H317"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
+      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
     <customSheetView guid="{99DE004B-00FA-487C-8A77-49BCF28A4A3E}">
       <pane ySplit="3" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H389" sqref="H389"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{70ABC279-7A81-4D32-B6C4-963557C6DAC8}">
-      <pane ySplit="3" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{54ACC300-05C8-4F7E-9680-88EBFD085649}">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{1C747BB0-6B2F-4632-97FD-9D1290587C65}">
-      <pane ySplit="3" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H317" sqref="H317"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{21BCBCDA-3164-4D24-ADC4-EDD438236AD2}" showPageBreaks="1">
-      <pane ySplit="3" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G261" sqref="G261:G263"/>
+    <customSheetView guid="{07147121-523E-4A6D-BDF5-D196F6699774}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
     </customSheetView>
